--- a/data/spices.xlsx
+++ b/data/spices.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\parti\Projects\spice-core\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E05EAAC-5C05-485E-8D00-F48083F106E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C4BCE3C-CA7B-47B9-B11B-3B9A2402A49F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20051,7 +20051,7 @@
     <xf numFmtId="0" fontId="17" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -20155,6 +20155,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="17" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -20336,6 +20345,7 @@
       <alignment vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
       <alignment vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -20982,8 +20992,8 @@
   </sheetPr>
   <dimension ref="A1:CR1141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AC1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AJ7" sqref="AJ7"/>
+    <sheetView tabSelected="1" topLeftCell="AF1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AM11" sqref="AM11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -21026,7 +21036,7 @@
     <col min="36" max="36" width="17.54296875" style="16" customWidth="1"/>
     <col min="37" max="37" width="6" style="16" customWidth="1"/>
     <col min="38" max="38" width="7.1796875" style="16" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="8.453125" style="16" customWidth="1"/>
+    <col min="39" max="39" width="8.453125" style="36" customWidth="1"/>
     <col min="40" max="40" width="31.7265625" style="16" customWidth="1"/>
     <col min="41" max="41" width="20.7265625" style="16" customWidth="1"/>
     <col min="42" max="42" width="9.1796875" style="16" customWidth="1"/>
@@ -21280,7 +21290,7 @@
       <c r="AL1" s="16" t="s">
         <v>624</v>
       </c>
-      <c r="AM1" s="16" t="s">
+      <c r="AM1" s="36" t="s">
         <v>625</v>
       </c>
       <c r="AN1" s="16" t="s">
@@ -21559,7 +21569,7 @@
         <f>Table1[[#This Row], [no. of native regions]]+Table1[[#This Row], [no. of introduced regions]]</f>
         <v>24</v>
       </c>
-      <c r="AM2" s="17">
+      <c r="AM2" s="37">
         <f>Table1[[#This Row], [no. of introduced regions]]/Table1[[#This Row], [no. of native regions]]</f>
         <v>0.84615384615384615</v>
       </c>
@@ -21789,7 +21799,7 @@
         <f>Table1[[#This Row], [no. of native regions]]+Table1[[#This Row], [no. of introduced regions]]</f>
         <v>46</v>
       </c>
-      <c r="AM3" s="16">
+      <c r="AM3" s="36">
         <f>Table1[[#This Row], [no. of introduced regions]]/Table1[[#This Row], [no. of native regions]]</f>
         <v>10.5</v>
       </c>
@@ -21978,7 +21988,7 @@
         <f>Table1[[#This Row], [no. of native regions]]+Table1[[#This Row], [no. of introduced regions]]</f>
         <v>9</v>
       </c>
-      <c r="AM4" s="16">
+      <c r="AM4" s="36">
         <f>Table1[[#This Row], [no. of introduced regions]]/Table1[[#This Row], [no. of native regions]]</f>
         <v>0.125</v>
       </c>
@@ -22170,7 +22180,7 @@
         <f>Table1[[#This Row], [no. of native regions]]+Table1[[#This Row], [no. of introduced regions]]</f>
         <v>124</v>
       </c>
-      <c r="AM5" s="16">
+      <c r="AM5" s="36">
         <f>Table1[[#This Row], [no. of introduced regions]]/Table1[[#This Row], [no. of native regions]]</f>
         <v>0.85074626865671643</v>
       </c>
@@ -22338,7 +22348,7 @@
         <f>Table1[[#This Row], [no. of native regions]]+Table1[[#This Row], [no. of introduced regions]]</f>
         <v>9</v>
       </c>
-      <c r="AM6" s="16">
+      <c r="AM6" s="36">
         <f>Table1[[#This Row], [no. of introduced regions]]/Table1[[#This Row], [no. of native regions]]</f>
         <v>3.5</v>
       </c>
@@ -22521,7 +22531,7 @@
         <f>Table1[[#This Row], [no. of native regions]]+Table1[[#This Row], [no. of introduced regions]]</f>
         <v>16</v>
       </c>
-      <c r="AM7" s="16">
+      <c r="AM7" s="36">
         <f>Table1[[#This Row], [no. of introduced regions]]/Table1[[#This Row], [no. of native regions]]</f>
         <v>15</v>
       </c>
@@ -22716,7 +22726,7 @@
         <f>Table1[[#This Row], [no. of native regions]]+Table1[[#This Row], [no. of introduced regions]]</f>
         <v>127</v>
       </c>
-      <c r="AM8" s="16">
+      <c r="AM8" s="36">
         <f>Table1[[#This Row], [no. of introduced regions]]/Table1[[#This Row], [no. of native regions]]</f>
         <v>17.142857142857142</v>
       </c>
@@ -22899,7 +22909,7 @@
         <f>Table1[[#This Row], [no. of native regions]]+Table1[[#This Row], [no. of introduced regions]]</f>
         <v>27</v>
       </c>
-      <c r="AM9" s="16">
+      <c r="AM9" s="36">
         <f>Table1[[#This Row], [no. of introduced regions]]/Table1[[#This Row], [no. of native regions]]</f>
         <v>26</v>
       </c>
@@ -23073,7 +23083,7 @@
         <f>Table1[[#This Row], [no. of native regions]]+Table1[[#This Row], [no. of introduced regions]]</f>
         <v>10</v>
       </c>
-      <c r="AM10" s="16">
+      <c r="AM10" s="36">
         <f>Table1[[#This Row], [no. of introduced regions]]/Table1[[#This Row], [no. of native regions]]</f>
         <v>9</v>
       </c>
@@ -23268,7 +23278,7 @@
         <f>Table1[[#This Row], [no. of native regions]]+Table1[[#This Row], [no. of introduced regions]]</f>
         <v>160</v>
       </c>
-      <c r="AM11" s="16">
+      <c r="AM11" s="36">
         <f>Table1[[#This Row], [no. of introduced regions]]/Table1[[#This Row], [no. of native regions]]</f>
         <v>15</v>
       </c>
@@ -23445,7 +23455,7 @@
         <f>Table1[[#This Row], [no. of native regions]]+Table1[[#This Row], [no. of introduced regions]]</f>
         <v>29</v>
       </c>
-      <c r="AM12" s="16">
+      <c r="AM12" s="36">
         <f>Table1[[#This Row], [no. of introduced regions]]/Table1[[#This Row], [no. of native regions]]</f>
         <v>8.6666666666666661</v>
       </c>
@@ -23604,7 +23614,7 @@
         <f>Table1[[#This Row], [no. of native regions]]+Table1[[#This Row], [no. of introduced regions]]</f>
         <v>145</v>
       </c>
-      <c r="AM13" s="16">
+      <c r="AM13" s="36">
         <f>Table1[[#This Row], [no. of introduced regions]]/Table1[[#This Row], [no. of native regions]]</f>
         <v>12.181818181818182</v>
       </c>
@@ -23754,7 +23764,7 @@
         <f>Table1[[#This Row], [no. of native regions]]+Table1[[#This Row], [no. of introduced regions]]</f>
         <v>170</v>
       </c>
-      <c r="AM14" s="16">
+      <c r="AM14" s="36">
         <f>Table1[[#This Row], [no. of introduced regions]]/Table1[[#This Row], [no. of native regions]]</f>
         <v>2.7777777777777777</v>
       </c>
@@ -23973,7 +23983,7 @@
         <f>Table1[[#This Row], [no. of native regions]]+Table1[[#This Row], [no. of introduced regions]]</f>
         <v>72</v>
       </c>
-      <c r="AM15" s="16">
+      <c r="AM15" s="36">
         <f>Table1[[#This Row], [no. of introduced regions]]/Table1[[#This Row], [no. of native regions]]</f>
         <v>17</v>
       </c>
@@ -24135,7 +24145,7 @@
         <f>Table1[[#This Row], [no. of native regions]]+Table1[[#This Row], [no. of introduced regions]]</f>
         <v>39</v>
       </c>
-      <c r="AM16" s="16">
+      <c r="AM16" s="36">
         <f>Table1[[#This Row], [no. of introduced regions]]/Table1[[#This Row], [no. of native regions]]</f>
         <v>8.75</v>
       </c>
@@ -24318,7 +24328,7 @@
         <f>Table1[[#This Row], [no. of native regions]]+Table1[[#This Row], [no. of introduced regions]]</f>
         <v>17</v>
       </c>
-      <c r="AM17" s="16">
+      <c r="AM17" s="36">
         <f>Table1[[#This Row], [no. of introduced regions]]/Table1[[#This Row], [no. of native regions]]</f>
         <v>0.7</v>
       </c>
@@ -24504,7 +24514,7 @@
         <f>Table1[[#This Row], [no. of native regions]]+Table1[[#This Row], [no. of introduced regions]]</f>
         <v>15</v>
       </c>
-      <c r="AM18" s="16">
+      <c r="AM18" s="36">
         <f>Table1[[#This Row], [no. of introduced regions]]/Table1[[#This Row], [no. of native regions]]</f>
         <v>14</v>
       </c>
@@ -24681,7 +24691,7 @@
         <f>Table1[[#This Row], [no. of native regions]]+Table1[[#This Row], [no. of introduced regions]]</f>
         <v>15</v>
       </c>
-      <c r="AM19" s="16">
+      <c r="AM19" s="36">
         <f>Table1[[#This Row], [no. of introduced regions]]/Table1[[#This Row], [no. of native regions]]</f>
         <v>14</v>
       </c>
@@ -24885,7 +24895,7 @@
         <f>Table1[[#This Row], [no. of native regions]]+Table1[[#This Row], [no. of introduced regions]]</f>
         <v>38</v>
       </c>
-      <c r="AM20" s="16">
+      <c r="AM20" s="36">
         <f>Table1[[#This Row], [no. of introduced regions]]/Table1[[#This Row], [no. of native regions]]</f>
         <v>37</v>
       </c>
@@ -25110,7 +25120,7 @@
         <f>Table1[[#This Row], [no. of native regions]]+Table1[[#This Row], [no. of introduced regions]]</f>
         <v>9</v>
       </c>
-      <c r="AM21" s="16">
+      <c r="AM21" s="36">
         <f>Table1[[#This Row], [no. of introduced regions]]/Table1[[#This Row], [no. of native regions]]</f>
         <v>8</v>
       </c>
@@ -25332,7 +25342,7 @@
         <f>Table1[[#This Row], [no. of native regions]]+Table1[[#This Row], [no. of introduced regions]]</f>
         <v>11</v>
       </c>
-      <c r="AM22" s="16">
+      <c r="AM22" s="36">
         <f>Table1[[#This Row], [no. of introduced regions]]/Table1[[#This Row], [no. of native regions]]</f>
         <v>0.1</v>
       </c>
@@ -25503,7 +25513,7 @@
         <f>Table1[[#This Row], [no. of native regions]]+Table1[[#This Row], [no. of introduced regions]]</f>
         <v>4</v>
       </c>
-      <c r="AM23" s="16">
+      <c r="AM23" s="36">
         <f>Table1[[#This Row], [no. of introduced regions]]/Table1[[#This Row], [no. of native regions]]</f>
         <v>1</v>
       </c>
@@ -25728,7 +25738,7 @@
         <f>Table1[[#This Row], [no. of native regions]]+Table1[[#This Row], [no. of introduced regions]]</f>
         <v>54</v>
       </c>
-      <c r="AM24" s="16">
+      <c r="AM24" s="36">
         <f>Table1[[#This Row], [no. of introduced regions]]/Table1[[#This Row], [no. of native regions]]</f>
         <v>53</v>
       </c>
@@ -25932,7 +25942,7 @@
         <f>Table1[[#This Row], [no. of native regions]]+Table1[[#This Row], [no. of introduced regions]]</f>
         <v>51</v>
       </c>
-      <c r="AM25" s="16">
+      <c r="AM25" s="36">
         <f>Table1[[#This Row], [no. of introduced regions]]/Table1[[#This Row], [no. of native regions]]</f>
         <v>2.6428571428571428</v>
       </c>
@@ -26131,7 +26141,7 @@
       <c r="AL26" s="23" t="s">
         <v>6264</v>
       </c>
-      <c r="AM26" s="23" t="s">
+      <c r="AM26" s="38" t="s">
         <v>6264</v>
       </c>
       <c r="AN26" s="23" t="s">
@@ -26271,7 +26281,7 @@
       <c r="AJ27" s="23"/>
       <c r="AK27" s="23"/>
       <c r="AL27" s="23"/>
-      <c r="AM27" s="23"/>
+      <c r="AM27" s="38"/>
       <c r="AN27" s="23"/>
       <c r="AO27" s="23"/>
       <c r="AP27" s="23" t="s">
@@ -26379,7 +26389,7 @@
       <c r="AJ28" s="23"/>
       <c r="AK28" s="23"/>
       <c r="AL28" s="23"/>
-      <c r="AM28" s="23"/>
+      <c r="AM28" s="38"/>
       <c r="AN28" s="23"/>
       <c r="AO28" s="23"/>
       <c r="AP28" s="23" t="s">
@@ -26523,7 +26533,7 @@
         <f>Table1[[#This Row], [no. of native regions]]+Table1[[#This Row], [no. of introduced regions]]</f>
         <v>11</v>
       </c>
-      <c r="AM29" s="16">
+      <c r="AM29" s="36">
         <f>Table1[[#This Row], [no. of introduced regions]]/Table1[[#This Row], [no. of native regions]]</f>
         <v>0.1</v>
       </c>
@@ -26820,7 +26830,7 @@
         <f>Table1[[#This Row], [no. of native regions]]+Table1[[#This Row], [no. of introduced regions]]</f>
         <v>75</v>
       </c>
-      <c r="AM34" s="16">
+      <c r="AM34" s="36">
         <f>Table1[[#This Row], [no. of introduced regions]]/Table1[[#This Row], [no. of native regions]]</f>
         <v>74</v>
       </c>
@@ -26889,7 +26899,7 @@
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="AM35" s="16">
+      <c r="AM35" s="36">
         <f>Table1[[#This Row], [no. of introduced regions]]/Table1[[#This Row], [no. of native regions]]</f>
         <v>1</v>
       </c>
@@ -26974,7 +26984,7 @@
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="AM36" s="16">
+      <c r="AM36" s="36">
         <f>Table1[[#This Row], [no. of introduced regions]]/Table1[[#This Row], [no. of native regions]]</f>
         <v>1</v>
       </c>
@@ -27021,7 +27031,7 @@
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="AM37" s="16">
+      <c r="AM37" s="36">
         <f>Table1[[#This Row], [no. of introduced regions]]/Table1[[#This Row], [no. of native regions]]</f>
         <v>1</v>
       </c>
@@ -27130,7 +27140,7 @@
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="AM39" s="16">
+      <c r="AM39" s="36">
         <f>Table1[[#This Row], [no. of introduced regions]]/Table1[[#This Row], [no. of native regions]]</f>
         <v>1</v>
       </c>
@@ -27211,7 +27221,7 @@
         <f>Table1[[#This Row], [no. of native regions]]+Table1[[#This Row], [no. of introduced regions]]</f>
         <v>38</v>
       </c>
-      <c r="AM40" s="16">
+      <c r="AM40" s="36">
         <f>Table1[[#This Row], [no. of introduced regions]]/Table1[[#This Row], [no. of native regions]]</f>
         <v>37</v>
       </c>
@@ -27357,7 +27367,7 @@
         <f>Table1[[#This Row], [no. of native regions]]+Table1[[#This Row], [no. of introduced regions]]</f>
         <v>126</v>
       </c>
-      <c r="AM41" s="16">
+      <c r="AM41" s="36">
         <f>Table1[[#This Row], [no. of introduced regions]]/Table1[[#This Row], [no. of native regions]]</f>
         <v>3.3448275862068964</v>
       </c>
@@ -27711,7 +27721,7 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="AM49" s="16">
+      <c r="AM49" s="36">
         <f>Table1[[#This Row], [no. of introduced regions]]/Table1[[#This Row], [no. of native regions]]</f>
         <v>0.1111111111111111</v>
       </c>
@@ -27990,7 +28000,7 @@
         <f>Table1[[#This Row], [no. of native regions]]+Table1[[#This Row], [no. of introduced regions]]</f>
         <v>4</v>
       </c>
-      <c r="AM54" s="16">
+      <c r="AM54" s="36">
         <f>Table1[[#This Row], [no. of introduced regions]]/Table1[[#This Row], [no. of native regions]]</f>
         <v>0.33333333333333331</v>
       </c>
@@ -28227,7 +28237,7 @@
         <f>Table1[[#This Row], [no. of native regions]]+Table1[[#This Row], [no. of introduced regions]]</f>
         <v>35</v>
       </c>
-      <c r="AM58" s="16">
+      <c r="AM58" s="36">
         <f>Table1[[#This Row], [no. of introduced regions]]/Table1[[#This Row], [no. of native regions]]</f>
         <v>2.9411764705882353E-2</v>
       </c>
@@ -28414,7 +28424,7 @@
         <f>Table1[[#This Row], [no. of native regions]]+Table1[[#This Row], [no. of introduced regions]]</f>
         <v>4</v>
       </c>
-      <c r="AM60" s="16">
+      <c r="AM60" s="36">
         <f>Table1[[#This Row], [no. of introduced regions]]/Table1[[#This Row], [no. of native regions]]</f>
         <v>0.33333333333333331</v>
       </c>
@@ -28582,7 +28592,7 @@
         <f>Table1[[#This Row], [no. of native regions]]+Table1[[#This Row], [no. of introduced regions]]</f>
         <v>13</v>
       </c>
-      <c r="AM62" s="16">
+      <c r="AM62" s="36">
         <f>Table1[[#This Row], [no. of introduced regions]]/Table1[[#This Row], [no. of native regions]]</f>
         <v>0.3</v>
       </c>
@@ -28679,7 +28689,7 @@
         <f>LEN(AJ64)-LEN(SUBSTITUTE(AJ64,",",""))+1</f>
         <v>1</v>
       </c>
-      <c r="AM64" s="16">
+      <c r="AM64" s="36">
         <f>Table1[[#This Row], [no. of introduced regions]]/Table1[[#This Row], [no. of native regions]]</f>
         <v>1</v>
       </c>
@@ -28714,7 +28724,7 @@
         <f>LEN(AJ65)-LEN(SUBSTITUTE(AJ65,",",""))+1</f>
         <v>1</v>
       </c>
-      <c r="AM65" s="16">
+      <c r="AM65" s="36">
         <f>Table1[[#This Row], [no. of introduced regions]]/Table1[[#This Row], [no. of native regions]]</f>
         <v>1</v>
       </c>
@@ -28801,7 +28811,7 @@
         <f>LEN(AJ68)-LEN(SUBSTITUTE(AJ68,",",""))+1</f>
         <v>1</v>
       </c>
-      <c r="AM68" s="16">
+      <c r="AM68" s="36">
         <f>Table1[[#This Row], [no. of introduced regions]]/Table1[[#This Row], [no. of native regions]]</f>
         <v>1</v>
       </c>
@@ -28913,7 +28923,7 @@
         <f>Table1[[#This Row], [no. of native regions]]+Table1[[#This Row], [no. of introduced regions]]</f>
         <v>92</v>
       </c>
-      <c r="AM70" s="16">
+      <c r="AM70" s="36">
         <f>Table1[[#This Row], [no. of introduced regions]]/Table1[[#This Row], [no. of native regions]]</f>
         <v>45</v>
       </c>
@@ -29028,7 +29038,7 @@
         <f>LEN(AJ71)-LEN(SUBSTITUTE(AJ71,",",""))+1</f>
         <v>1</v>
       </c>
-      <c r="AM71" s="16">
+      <c r="AM71" s="36">
         <f>Table1[[#This Row], [no. of introduced regions]]/Table1[[#This Row], [no. of native regions]]</f>
         <v>1</v>
       </c>
@@ -29302,7 +29312,7 @@
         <f>Table1[[#This Row], [no. of native regions]]+Table1[[#This Row], [no. of introduced regions]]</f>
         <v>29</v>
       </c>
-      <c r="AM77" s="16">
+      <c r="AM77" s="36">
         <f>Table1[[#This Row], [no. of introduced regions]]/Table1[[#This Row], [no. of native regions]]</f>
         <v>3.8333333333333335</v>
       </c>
@@ -29530,7 +29540,7 @@
         <f>Table1[[#This Row], [no. of native regions]]+Table1[[#This Row], [no. of introduced regions]]</f>
         <v>55</v>
       </c>
-      <c r="AM82" s="16">
+      <c r="AM82" s="36">
         <f>Table1[[#This Row], [no. of introduced regions]]/Table1[[#This Row], [no. of native regions]]</f>
         <v>8.1666666666666661</v>
       </c>
@@ -29625,7 +29635,7 @@
         <f>Table1[[#This Row], [no. of native regions]]+Table1[[#This Row], [no. of introduced regions]]</f>
         <v>2</v>
       </c>
-      <c r="AM83" s="16">
+      <c r="AM83" s="36">
         <f>Table1[[#This Row], [no. of introduced regions]]/Table1[[#This Row], [no. of native regions]]</f>
         <v>1</v>
       </c>
@@ -29765,7 +29775,7 @@
         <f>Table1[[#This Row], [no. of native regions]]+Table1[[#This Row], [no. of introduced regions]]</f>
         <v>223</v>
       </c>
-      <c r="AM85" s="16">
+      <c r="AM85" s="36">
         <f>Table1[[#This Row], [no. of introduced regions]]/Table1[[#This Row], [no. of native regions]]</f>
         <v>9.6190476190476186</v>
       </c>
@@ -29860,7 +29870,7 @@
         <f>Table1[[#This Row], [no. of native regions]]+Table1[[#This Row], [no. of introduced regions]]</f>
         <v>98</v>
       </c>
-      <c r="AM86" s="16">
+      <c r="AM86" s="36">
         <f>Table1[[#This Row], [no. of introduced regions]]/Table1[[#This Row], [no. of native regions]]</f>
         <v>5.5333333333333332</v>
       </c>
@@ -30000,7 +30010,7 @@
         <f>Table1[[#This Row], [no. of native regions]]+Table1[[#This Row], [no. of introduced regions]]</f>
         <v>4</v>
       </c>
-      <c r="AM89" s="16">
+      <c r="AM89" s="36">
         <f>Table1[[#This Row], [no. of introduced regions]]/Table1[[#This Row], [no. of native regions]]</f>
         <v>0.33333333333333331</v>
       </c>
@@ -30202,7 +30212,7 @@
         <f>LEN(AJ92)-LEN(SUBSTITUTE(AJ92,",",""))+1</f>
         <v>1</v>
       </c>
-      <c r="AM92" s="16">
+      <c r="AM92" s="36">
         <f>Table1[[#This Row], [no. of introduced regions]]/Table1[[#This Row], [no. of native regions]]</f>
         <v>1</v>
       </c>
@@ -30318,7 +30328,7 @@
         <f>Table1[[#This Row], [no. of native regions]]+Table1[[#This Row], [no. of introduced regions]]</f>
         <v>17</v>
       </c>
-      <c r="AM94" s="16">
+      <c r="AM94" s="36">
         <f>Table1[[#This Row], [no. of introduced regions]]/Table1[[#This Row], [no. of native regions]]</f>
         <v>0.21428571428571427</v>
       </c>
@@ -30440,7 +30450,7 @@
         <f>Table1[[#This Row], [no. of native regions]]+Table1[[#This Row], [no. of introduced regions]]</f>
         <v>79</v>
       </c>
-      <c r="AM95" s="16">
+      <c r="AM95" s="36">
         <f>Table1[[#This Row], [no. of introduced regions]]/Table1[[#This Row], [no. of native regions]]</f>
         <v>5.583333333333333</v>
       </c>
@@ -30589,7 +30599,7 @@
         <f>LEN(AJ98)-LEN(SUBSTITUTE(AJ98,",",""))+1</f>
         <v>1</v>
       </c>
-      <c r="AM98" s="16">
+      <c r="AM98" s="36">
         <f>Table1[[#This Row], [no. of introduced regions]]/Table1[[#This Row], [no. of native regions]]</f>
         <v>1</v>
       </c>
@@ -31063,7 +31073,7 @@
         <f>LEN(AJ113)-LEN(SUBSTITUTE(AJ113,",",""))+1</f>
         <v>1</v>
       </c>
-      <c r="AM113" s="16">
+      <c r="AM113" s="36">
         <f>Table1[[#This Row], [no. of introduced regions]]/Table1[[#This Row], [no. of native regions]]</f>
         <v>1</v>
       </c>
@@ -31116,7 +31126,7 @@
         <f>LEN(AJ114)-LEN(SUBSTITUTE(AJ114,",",""))+1</f>
         <v>1</v>
       </c>
-      <c r="AM114" s="16">
+      <c r="AM114" s="36">
         <f>Table1[[#This Row], [no. of introduced regions]]/Table1[[#This Row], [no. of native regions]]</f>
         <v>1</v>
       </c>
@@ -31541,7 +31551,7 @@
         <f>Table1[[#This Row], [no. of native regions]]+Table1[[#This Row], [no. of introduced regions]]</f>
         <v>5</v>
       </c>
-      <c r="AM124" s="16">
+      <c r="AM124" s="36">
         <f>Table1[[#This Row], [no. of introduced regions]]/Table1[[#This Row], [no. of native regions]]</f>
         <v>4</v>
       </c>
@@ -31762,7 +31772,7 @@
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="AM129" s="16">
+      <c r="AM129" s="36">
         <f>Table1[[#This Row], [no. of introduced regions]]/Table1[[#This Row], [no. of native regions]]</f>
         <v>1</v>
       </c>
@@ -31858,7 +31868,7 @@
         <f>Table1[[#This Row], [no. of native regions]]+Table1[[#This Row], [no. of introduced regions]]</f>
         <v>17</v>
       </c>
-      <c r="AM130" s="16">
+      <c r="AM130" s="36">
         <f>Table1[[#This Row], [no. of introduced regions]]/Table1[[#This Row], [no. of native regions]]</f>
         <v>0.30769230769230771</v>
       </c>
@@ -31941,7 +31951,7 @@
         <f>Table1[[#This Row], [no. of native regions]]+Table1[[#This Row], [no. of introduced regions]]</f>
         <v>9</v>
       </c>
-      <c r="AM131" s="16">
+      <c r="AM131" s="36">
         <f>Table1[[#This Row], [no. of introduced regions]]/Table1[[#This Row], [no. of native regions]]</f>
         <v>0.125</v>
       </c>
@@ -32231,7 +32241,7 @@
         <f>Table1[[#This Row], [no. of native regions]]+Table1[[#This Row], [no. of introduced regions]]</f>
         <v>2</v>
       </c>
-      <c r="AM135" s="16">
+      <c r="AM135" s="36">
         <f>Table1[[#This Row], [no. of introduced regions]]/Table1[[#This Row], [no. of native regions]]</f>
         <v>1</v>
       </c>
@@ -32523,7 +32533,7 @@
         <f>Table1[[#This Row], [no. of native regions]]+Table1[[#This Row], [no. of introduced regions]]</f>
         <v>113</v>
       </c>
-      <c r="AM141" s="16">
+      <c r="AM141" s="36">
         <f>Table1[[#This Row], [no. of introduced regions]]/Table1[[#This Row], [no. of native regions]]</f>
         <v>8.4166666666666661</v>
       </c>
@@ -32735,7 +32745,7 @@
         <f>LEN(AJ146)-LEN(SUBSTITUTE(AJ146,",",""))+1</f>
         <v>1</v>
       </c>
-      <c r="AM146" s="16">
+      <c r="AM146" s="36">
         <f>Table1[[#This Row], [no. of introduced regions]]/Table1[[#This Row], [no. of native regions]]</f>
         <v>1</v>
       </c>
@@ -33072,7 +33082,7 @@
         <f>Table1[[#This Row], [no. of native regions]]+Table1[[#This Row], [no. of introduced regions]]</f>
         <v>143</v>
       </c>
-      <c r="AM151" s="16">
+      <c r="AM151" s="36">
         <f>Table1[[#This Row], [no. of introduced regions]]/Table1[[#This Row], [no. of native regions]]</f>
         <v>9.2142857142857135</v>
       </c>
@@ -33211,7 +33221,7 @@
         <f>Table1[[#This Row], [no. of native regions]]+Table1[[#This Row], [no. of introduced regions]]</f>
         <v>17</v>
       </c>
-      <c r="AM153" s="16">
+      <c r="AM153" s="36">
         <f>Table1[[#This Row], [no. of introduced regions]]/Table1[[#This Row], [no. of native regions]]</f>
         <v>1.4285714285714286</v>
       </c>
@@ -33390,7 +33400,7 @@
         <f>Table1[[#This Row], [no. of native regions]]+Table1[[#This Row], [no. of introduced regions]]</f>
         <v>33</v>
       </c>
-      <c r="AM157" s="16">
+      <c r="AM157" s="36">
         <f>Table1[[#This Row], [no. of introduced regions]]/Table1[[#This Row], [no. of native regions]]</f>
         <v>0.73684210526315785</v>
       </c>
@@ -33494,7 +33504,7 @@
         <f>Table1[[#This Row], [no. of native regions]]+Table1[[#This Row], [no. of introduced regions]]</f>
         <v>50</v>
       </c>
-      <c r="AM158" s="16">
+      <c r="AM158" s="36">
         <f>Table1[[#This Row], [no. of introduced regions]]/Table1[[#This Row], [no. of native regions]]</f>
         <v>4</v>
       </c>
@@ -33598,7 +33608,7 @@
         <f>Table1[[#This Row], [no. of native regions]]+Table1[[#This Row], [no. of introduced regions]]</f>
         <v>2</v>
       </c>
-      <c r="AM159" s="16">
+      <c r="AM159" s="36">
         <f>Table1[[#This Row], [no. of introduced regions]]/Table1[[#This Row], [no. of native regions]]</f>
         <v>1</v>
       </c>
@@ -33647,7 +33657,7 @@
         <f>LEN(AJ160)-LEN(SUBSTITUTE(AJ160,",",""))+1</f>
         <v>1</v>
       </c>
-      <c r="AM160" s="16">
+      <c r="AM160" s="36">
         <f>Table1[[#This Row], [no. of introduced regions]]/Table1[[#This Row], [no. of native regions]]</f>
         <v>1</v>
       </c>
@@ -33763,7 +33773,7 @@
         <f>Table1[[#This Row], [no. of native regions]]+Table1[[#This Row], [no. of introduced regions]]</f>
         <v>134</v>
       </c>
-      <c r="AM162" s="16">
+      <c r="AM162" s="36">
         <f>Table1[[#This Row], [no. of introduced regions]]/Table1[[#This Row], [no. of native regions]]</f>
         <v>66</v>
       </c>
@@ -34071,7 +34081,7 @@
         <f>Table1[[#This Row], [no. of native regions]]+Table1[[#This Row], [no. of introduced regions]]</f>
         <v>20</v>
       </c>
-      <c r="AM166" s="16">
+      <c r="AM166" s="36">
         <f>Table1[[#This Row], [no. of introduced regions]]/Table1[[#This Row], [no. of native regions]]</f>
         <v>3</v>
       </c>
@@ -34202,7 +34212,7 @@
         <f>Table1[[#This Row], [no. of native regions]]+Table1[[#This Row], [no. of introduced regions]]</f>
         <v>36</v>
       </c>
-      <c r="AM167" s="16">
+      <c r="AM167" s="36">
         <f>Table1[[#This Row], [no. of introduced regions]]/Table1[[#This Row], [no. of native regions]]</f>
         <v>2.6</v>
       </c>
@@ -34411,7 +34421,7 @@
         <f>Table1[[#This Row], [no. of native regions]]+Table1[[#This Row], [no. of introduced regions]]</f>
         <v>2</v>
       </c>
-      <c r="AM171" s="16">
+      <c r="AM171" s="36">
         <f>Table1[[#This Row], [no. of introduced regions]]/Table1[[#This Row], [no. of native regions]]</f>
         <v>1</v>
       </c>
@@ -34549,7 +34559,7 @@
         <f>Table1[[#This Row], [no. of native regions]]+Table1[[#This Row], [no. of introduced regions]]</f>
         <v>125</v>
       </c>
-      <c r="AM172" s="16">
+      <c r="AM172" s="36">
         <f>Table1[[#This Row], [no. of introduced regions]]/Table1[[#This Row], [no. of native regions]]</f>
         <v>30.25</v>
       </c>
@@ -34704,7 +34714,7 @@
         <f>Table1[[#This Row], [no. of native regions]]+Table1[[#This Row], [no. of introduced regions]]</f>
         <v>5</v>
       </c>
-      <c r="AM173" s="16">
+      <c r="AM173" s="36">
         <f>Table1[[#This Row], [no. of introduced regions]]/Table1[[#This Row], [no. of native regions]]</f>
         <v>0.25</v>
       </c>
@@ -34810,7 +34820,7 @@
         <f>LEN(AJ176)-LEN(SUBSTITUTE(AJ176,",",""))+1</f>
         <v>1</v>
       </c>
-      <c r="AM176" s="16">
+      <c r="AM176" s="36">
         <f>Table1[[#This Row], [no. of introduced regions]]/Table1[[#This Row], [no. of native regions]]</f>
         <v>1</v>
       </c>
@@ -35066,7 +35076,7 @@
         <f>Table1[[#This Row], [no. of native regions]]+Table1[[#This Row], [no. of introduced regions]]</f>
         <v>119</v>
       </c>
-      <c r="AM180" s="16">
+      <c r="AM180" s="36">
         <f>Table1[[#This Row], [no. of introduced regions]]/Table1[[#This Row], [no. of native regions]]</f>
         <v>58.5</v>
       </c>
@@ -35133,7 +35143,7 @@
         <f>LEN(AJ181)-LEN(SUBSTITUTE(AJ181,",",""))+1</f>
         <v>1</v>
       </c>
-      <c r="AM181" s="16">
+      <c r="AM181" s="36">
         <f>Table1[[#This Row], [no. of introduced regions]]/Table1[[#This Row], [no. of native regions]]</f>
         <v>1</v>
       </c>
@@ -35370,7 +35380,7 @@
         <f>Table1[[#This Row], [no. of native regions]]+Table1[[#This Row], [no. of introduced regions]]</f>
         <v>167</v>
       </c>
-      <c r="AM185" s="16">
+      <c r="AM185" s="36">
         <f>Table1[[#This Row], [no. of introduced regions]]/Table1[[#This Row], [no. of native regions]]</f>
         <v>166</v>
       </c>
@@ -35681,7 +35691,7 @@
         <f>Table1[[#This Row], [no. of native regions]]+Table1[[#This Row], [no. of introduced regions]]</f>
         <v>165</v>
       </c>
-      <c r="AM193" s="16">
+      <c r="AM193" s="36">
         <f>Table1[[#This Row], [no. of introduced regions]]/Table1[[#This Row], [no. of native regions]]</f>
         <v>40.25</v>
       </c>
@@ -35786,7 +35796,7 @@
         <f>Table1[[#This Row], [no. of native regions]]+Table1[[#This Row], [no. of introduced regions]]</f>
         <v>144</v>
       </c>
-      <c r="AM194" s="16">
+      <c r="AM194" s="36">
         <f>Table1[[#This Row], [no. of introduced regions]]/Table1[[#This Row], [no. of native regions]]</f>
         <v>1.3225806451612903</v>
       </c>
@@ -35865,7 +35875,7 @@
         <f>LEN(AJ195)-LEN(SUBSTITUTE(AJ195,",",""))+1</f>
         <v>1</v>
       </c>
-      <c r="AM195" s="16">
+      <c r="AM195" s="36">
         <f>Table1[[#This Row], [no. of introduced regions]]/Table1[[#This Row], [no. of native regions]]</f>
         <v>1</v>
       </c>
@@ -35950,7 +35960,7 @@
         <f>Table1[[#This Row], [no. of native regions]]+Table1[[#This Row], [no. of introduced regions]]</f>
         <v>13</v>
       </c>
-      <c r="AM196" s="16">
+      <c r="AM196" s="36">
         <f>Table1[[#This Row], [no. of introduced regions]]/Table1[[#This Row], [no. of native regions]]</f>
         <v>3.3333333333333335</v>
       </c>
@@ -36151,7 +36161,7 @@
         <f>Table1[[#This Row], [no. of native regions]]+Table1[[#This Row], [no. of introduced regions]]</f>
         <v>2</v>
       </c>
-      <c r="AM199" s="16">
+      <c r="AM199" s="36">
         <f>Table1[[#This Row], [no. of introduced regions]]/Table1[[#This Row], [no. of native regions]]</f>
         <v>1</v>
       </c>
@@ -36872,7 +36882,7 @@
         <f>LEN(AJ220)-LEN(SUBSTITUTE(AJ220,",",""))+1</f>
         <v>1</v>
       </c>
-      <c r="AM220" s="16">
+      <c r="AM220" s="36">
         <f>Table1[[#This Row], [no. of introduced regions]]/Table1[[#This Row], [no. of native regions]]</f>
         <v>1</v>
       </c>
@@ -36950,7 +36960,7 @@
         <f>Table1[[#This Row], [no. of native regions]]+Table1[[#This Row], [no. of introduced regions]]</f>
         <v>2</v>
       </c>
-      <c r="AM222" s="16">
+      <c r="AM222" s="36">
         <f>Table1[[#This Row], [no. of introduced regions]]/Table1[[#This Row], [no. of native regions]]</f>
         <v>1</v>
       </c>
@@ -37057,7 +37067,7 @@
         <f>Table1[[#This Row], [no. of native regions]]+Table1[[#This Row], [no. of introduced regions]]</f>
         <v>2</v>
       </c>
-      <c r="AM225" s="16">
+      <c r="AM225" s="36">
         <f>Table1[[#This Row], [no. of introduced regions]]/Table1[[#This Row], [no. of native regions]]</f>
         <v>1</v>
       </c>
@@ -37127,7 +37137,7 @@
         <f>LEN(AJ227)-LEN(SUBSTITUTE(AJ227,",",""))+1</f>
         <v>1</v>
       </c>
-      <c r="AM227" s="16">
+      <c r="AM227" s="36">
         <f>Table1[[#This Row], [no. of introduced regions]]/Table1[[#This Row], [no. of native regions]]</f>
         <v>1</v>
       </c>
@@ -37242,7 +37252,7 @@
         <f>Table1[[#This Row], [no. of native regions]]+Table1[[#This Row], [no. of introduced regions]]</f>
         <v>2</v>
       </c>
-      <c r="AM230" s="16">
+      <c r="AM230" s="36">
         <f>Table1[[#This Row], [no. of introduced regions]]/Table1[[#This Row], [no. of native regions]]</f>
         <v>1</v>
       </c>
@@ -37287,7 +37297,7 @@
         <f>Table1[[#This Row], [no. of native regions]]+Table1[[#This Row], [no. of introduced regions]]</f>
         <v>2</v>
       </c>
-      <c r="AM231" s="16">
+      <c r="AM231" s="36">
         <f>Table1[[#This Row], [no. of introduced regions]]/Table1[[#This Row], [no. of native regions]]</f>
         <v>1</v>
       </c>
@@ -37328,7 +37338,7 @@
         <f>LEN(AJ232)-LEN(SUBSTITUTE(AJ232,",",""))+1</f>
         <v>1</v>
       </c>
-      <c r="AM232" s="16">
+      <c r="AM232" s="36">
         <f>Table1[[#This Row], [no. of introduced regions]]/Table1[[#This Row], [no. of native regions]]</f>
         <v>1</v>
       </c>
@@ -37431,7 +37441,7 @@
         <f>LEN(AJ235)-LEN(SUBSTITUTE(AJ235,",",""))+1</f>
         <v>1</v>
       </c>
-      <c r="AM235" s="16">
+      <c r="AM235" s="36">
         <f>Table1[[#This Row], [no. of introduced regions]]/Table1[[#This Row], [no. of native regions]]</f>
         <v>1</v>
       </c>
@@ -37818,7 +37828,7 @@
         <f>Table1[[#This Row], [no. of native regions]]+Table1[[#This Row], [no. of introduced regions]]</f>
         <v>2</v>
       </c>
-      <c r="AM246" s="16">
+      <c r="AM246" s="36">
         <f>Table1[[#This Row], [no. of introduced regions]]/Table1[[#This Row], [no. of native regions]]</f>
         <v>1</v>
       </c>
@@ -38446,7 +38456,7 @@
         <f>LEN(AJ260)-LEN(SUBSTITUTE(AJ260,",",""))+1</f>
         <v>1</v>
       </c>
-      <c r="AM260" s="16">
+      <c r="AM260" s="36">
         <f>Table1[[#This Row], [no. of introduced regions]]/Table1[[#This Row], [no. of native regions]]</f>
         <v>1</v>
       </c>
@@ -38868,7 +38878,7 @@
         <f>Table1[[#This Row], [no. of native regions]]+Table1[[#This Row], [no. of introduced regions]]</f>
         <v>2</v>
       </c>
-      <c r="AM270" s="16">
+      <c r="AM270" s="36">
         <f>Table1[[#This Row], [no. of introduced regions]]/Table1[[#This Row], [no. of native regions]]</f>
         <v>1</v>
       </c>
@@ -38997,7 +39007,7 @@
         <f>LEN(AJ273)-LEN(SUBSTITUTE(AJ273,",",""))+1</f>
         <v>1</v>
       </c>
-      <c r="AM273" s="16">
+      <c r="AM273" s="36">
         <f>Table1[[#This Row], [no. of introduced regions]]/Table1[[#This Row], [no. of native regions]]</f>
         <v>1</v>
       </c>
@@ -39192,7 +39202,7 @@
         <f>Table1[[#This Row], [no. of native regions]]+Table1[[#This Row], [no. of introduced regions]]</f>
         <v>2</v>
       </c>
-      <c r="AM278" s="16">
+      <c r="AM278" s="36">
         <f>Table1[[#This Row], [no. of introduced regions]]/Table1[[#This Row], [no. of native regions]]</f>
         <v>1</v>
       </c>
@@ -39439,7 +39449,7 @@
         <f>Table1[[#This Row], [no. of native regions]]+Table1[[#This Row], [no. of introduced regions]]</f>
         <v>2</v>
       </c>
-      <c r="AM283" s="16">
+      <c r="AM283" s="36">
         <f>Table1[[#This Row], [no. of introduced regions]]/Table1[[#This Row], [no. of native regions]]</f>
         <v>1</v>
       </c>
@@ -39496,7 +39506,7 @@
         <f>Table1[[#This Row], [no. of native regions]]+Table1[[#This Row], [no. of introduced regions]]</f>
         <v>2</v>
       </c>
-      <c r="AM284" s="16">
+      <c r="AM284" s="36">
         <f>Table1[[#This Row], [no. of introduced regions]]/Table1[[#This Row], [no. of native regions]]</f>
         <v>1</v>
       </c>
@@ -39537,7 +39547,7 @@
         <f>LEN(AJ285)-LEN(SUBSTITUTE(AJ285,",",""))+1</f>
         <v>1</v>
       </c>
-      <c r="AM285" s="16">
+      <c r="AM285" s="36">
         <f>Table1[[#This Row], [no. of introduced regions]]/Table1[[#This Row], [no. of native regions]]</f>
         <v>1</v>
       </c>
@@ -39673,7 +39683,7 @@
         <f>LEN(AJ289)-LEN(SUBSTITUTE(AJ289,",",""))+1</f>
         <v>1</v>
       </c>
-      <c r="AM289" s="16">
+      <c r="AM289" s="36">
         <f>Table1[[#This Row], [no. of introduced regions]]/Table1[[#This Row], [no. of native regions]]</f>
         <v>1</v>
       </c>
@@ -39923,7 +39933,7 @@
         <f>LEN(AJ295)-LEN(SUBSTITUTE(AJ295,",",""))+1</f>
         <v>1</v>
       </c>
-      <c r="AM295" s="16">
+      <c r="AM295" s="36">
         <f>Table1[[#This Row], [no. of introduced regions]]/Table1[[#This Row], [no. of native regions]]</f>
         <v>1</v>
       </c>
@@ -40347,7 +40357,7 @@
         <f>Table1[[#This Row], [no. of native regions]]+Table1[[#This Row], [no. of introduced regions]]</f>
         <v>2</v>
       </c>
-      <c r="AM305" s="16">
+      <c r="AM305" s="36">
         <f>Table1[[#This Row], [no. of introduced regions]]/Table1[[#This Row], [no. of native regions]]</f>
         <v>1</v>
       </c>
@@ -40479,7 +40489,7 @@
         <f>Table1[[#This Row], [no. of native regions]]+Table1[[#This Row], [no. of introduced regions]]</f>
         <v>2</v>
       </c>
-      <c r="AM309" s="16">
+      <c r="AM309" s="36">
         <f>Table1[[#This Row], [no. of introduced regions]]/Table1[[#This Row], [no. of native regions]]</f>
         <v>1</v>
       </c>
@@ -40520,7 +40530,7 @@
         <f>LEN(AJ310)-LEN(SUBSTITUTE(AJ310,",",""))+1</f>
         <v>1</v>
       </c>
-      <c r="AM310" s="16">
+      <c r="AM310" s="36">
         <f>Table1[[#This Row], [no. of introduced regions]]/Table1[[#This Row], [no. of native regions]]</f>
         <v>1</v>
       </c>
@@ -40660,7 +40670,7 @@
         <f>Table1[[#This Row], [no. of native regions]]+Table1[[#This Row], [no. of introduced regions]]</f>
         <v>2</v>
       </c>
-      <c r="AM314" s="16">
+      <c r="AM314" s="36">
         <f>Table1[[#This Row], [no. of introduced regions]]/Table1[[#This Row], [no. of native regions]]</f>
         <v>1</v>
       </c>
@@ -41433,7 +41443,7 @@
         <f>Table1[[#This Row], [no. of native regions]]+Table1[[#This Row], [no. of introduced regions]]</f>
         <v>2</v>
       </c>
-      <c r="AM334" s="16">
+      <c r="AM334" s="36">
         <f>Table1[[#This Row], [no. of introduced regions]]/Table1[[#This Row], [no. of native regions]]</f>
         <v>1</v>
       </c>
@@ -41704,7 +41714,7 @@
         <f>LEN(AJ341)-LEN(SUBSTITUTE(AJ341,",",""))+1</f>
         <v>1</v>
       </c>
-      <c r="AM341" s="16">
+      <c r="AM341" s="36">
         <f>Table1[[#This Row], [no. of introduced regions]]/Table1[[#This Row], [no. of native regions]]</f>
         <v>1</v>
       </c>
@@ -41848,7 +41858,7 @@
         <f>Table1[[#This Row], [no. of native regions]]+Table1[[#This Row], [no. of introduced regions]]</f>
         <v>2</v>
       </c>
-      <c r="AM345" s="16">
+      <c r="AM345" s="36">
         <f>Table1[[#This Row], [no. of introduced regions]]/Table1[[#This Row], [no. of native regions]]</f>
         <v>1</v>
       </c>
@@ -41926,7 +41936,7 @@
         <f>Table1[[#This Row], [no. of native regions]]+Table1[[#This Row], [no. of introduced regions]]</f>
         <v>2</v>
       </c>
-      <c r="AM347" s="16">
+      <c r="AM347" s="36">
         <f>Table1[[#This Row], [no. of introduced regions]]/Table1[[#This Row], [no. of native regions]]</f>
         <v>1</v>
       </c>
@@ -41971,7 +41981,7 @@
         <f>Table1[[#This Row], [no. of native regions]]+Table1[[#This Row], [no. of introduced regions]]</f>
         <v>2</v>
       </c>
-      <c r="AM348" s="16">
+      <c r="AM348" s="36">
         <f>Table1[[#This Row], [no. of introduced regions]]/Table1[[#This Row], [no. of native regions]]</f>
         <v>1</v>
       </c>
@@ -42049,7 +42059,7 @@
         <f>Table1[[#This Row], [no. of native regions]]+Table1[[#This Row], [no. of introduced regions]]</f>
         <v>2</v>
       </c>
-      <c r="AM350" s="16">
+      <c r="AM350" s="36">
         <f>Table1[[#This Row], [no. of introduced regions]]/Table1[[#This Row], [no. of native regions]]</f>
         <v>1</v>
       </c>
@@ -43159,7 +43169,7 @@
         <f>Table1[[#This Row], [no. of native regions]]+Table1[[#This Row], [no. of introduced regions]]</f>
         <v>2</v>
       </c>
-      <c r="AM376" s="16">
+      <c r="AM376" s="36">
         <f>Table1[[#This Row], [no. of introduced regions]]/Table1[[#This Row], [no. of native regions]]</f>
         <v>1</v>
       </c>
@@ -43507,7 +43517,7 @@
         <f>LEN(AJ384)-LEN(SUBSTITUTE(AJ384,",",""))+1</f>
         <v>1</v>
       </c>
-      <c r="AM384" s="16">
+      <c r="AM384" s="36">
         <f>Table1[[#This Row], [no. of introduced regions]]/Table1[[#This Row], [no. of native regions]]</f>
         <v>1</v>
       </c>
@@ -43658,7 +43668,7 @@
         <f>LEN(AJ387)-LEN(SUBSTITUTE(AJ387,",",""))+1</f>
         <v>1</v>
       </c>
-      <c r="AM387" s="16">
+      <c r="AM387" s="36">
         <f>Table1[[#This Row], [no. of introduced regions]]/Table1[[#This Row], [no. of native regions]]</f>
         <v>1</v>
       </c>
@@ -44180,7 +44190,7 @@
         <f>Table1[[#This Row], [no. of native regions]]+Table1[[#This Row], [no. of introduced regions]]</f>
         <v>2</v>
       </c>
-      <c r="AM397" s="16">
+      <c r="AM397" s="36">
         <f>Table1[[#This Row], [no. of introduced regions]]/Table1[[#This Row], [no. of native regions]]</f>
         <v>1</v>
       </c>
@@ -44276,7 +44286,7 @@
         <f>LEN(AJ399)-LEN(SUBSTITUTE(AJ399,",",""))+1</f>
         <v>1</v>
       </c>
-      <c r="AM399" s="16">
+      <c r="AM399" s="36">
         <f>Table1[[#This Row], [no. of introduced regions]]/Table1[[#This Row], [no. of native regions]]</f>
         <v>1</v>
       </c>
@@ -44603,7 +44613,7 @@
         <f>Table1[[#This Row], [no. of native regions]]+Table1[[#This Row], [no. of introduced regions]]</f>
         <v>2</v>
       </c>
-      <c r="AM406" s="16">
+      <c r="AM406" s="36">
         <f>Table1[[#This Row], [no. of introduced regions]]/Table1[[#This Row], [no. of native regions]]</f>
         <v>1</v>
       </c>
@@ -44842,7 +44852,7 @@
         <f>Table1[[#This Row], [no. of native regions]]+Table1[[#This Row], [no. of introduced regions]]</f>
         <v>2</v>
       </c>
-      <c r="AM411" s="16">
+      <c r="AM411" s="36">
         <f>Table1[[#This Row], [no. of introduced regions]]/Table1[[#This Row], [no. of native regions]]</f>
         <v>1</v>
       </c>
@@ -47519,7 +47529,7 @@
         <f>Table1[[#This Row], [no. of native regions]]+Table1[[#This Row], [no. of introduced regions]]</f>
         <v>2</v>
       </c>
-      <c r="AM469" s="16">
+      <c r="AM469" s="36">
         <f>Table1[[#This Row], [no. of introduced regions]]/Table1[[#This Row], [no. of native regions]]</f>
         <v>1</v>
       </c>
@@ -47985,7 +47995,7 @@
         <f>LEN(AJ481)-LEN(SUBSTITUTE(AJ481,",",""))+1</f>
         <v>1</v>
       </c>
-      <c r="AM481" s="16">
+      <c r="AM481" s="36">
         <f>Table1[[#This Row], [no. of introduced regions]]/Table1[[#This Row], [no. of native regions]]</f>
         <v>1</v>
       </c>
@@ -48188,7 +48198,7 @@
         <f>Table1[[#This Row], [no. of native regions]]+Table1[[#This Row], [no. of introduced regions]]</f>
         <v>2</v>
       </c>
-      <c r="AM486" s="16">
+      <c r="AM486" s="36">
         <f>Table1[[#This Row], [no. of introduced regions]]/Table1[[#This Row], [no. of native regions]]</f>
         <v>1</v>
       </c>
@@ -48919,7 +48929,7 @@
         <f>LEN(AJ501)-LEN(SUBSTITUTE(AJ501,",",""))+1</f>
         <v>1</v>
       </c>
-      <c r="AM501" s="16">
+      <c r="AM501" s="36">
         <f>Table1[[#This Row], [no. of introduced regions]]/Table1[[#This Row], [no. of native regions]]</f>
         <v>1</v>
       </c>
@@ -49191,7 +49201,7 @@
         <f>LEN(AJ507)-LEN(SUBSTITUTE(AJ507,",",""))+1</f>
         <v>1</v>
       </c>
-      <c r="AM507" s="16">
+      <c r="AM507" s="36">
         <f>Table1[[#This Row], [no. of introduced regions]]/Table1[[#This Row], [no. of native regions]]</f>
         <v>1</v>
       </c>
@@ -49459,7 +49469,7 @@
         <f>LEN(AJ513)-LEN(SUBSTITUTE(AJ513,",",""))+1</f>
         <v>1</v>
       </c>
-      <c r="AM513" s="16">
+      <c r="AM513" s="36">
         <f>Table1[[#This Row], [no. of introduced regions]]/Table1[[#This Row], [no. of native regions]]</f>
         <v>1</v>
       </c>
@@ -49805,7 +49815,7 @@
         <f>Table1[[#This Row], [no. of native regions]]+Table1[[#This Row], [no. of introduced regions]]</f>
         <v>2</v>
       </c>
-      <c r="AM521" s="16">
+      <c r="AM521" s="36">
         <f>Table1[[#This Row], [no. of introduced regions]]/Table1[[#This Row], [no. of native regions]]</f>
         <v>1</v>
       </c>
@@ -49846,7 +49856,7 @@
         <f>LEN(AJ522)-LEN(SUBSTITUTE(AJ522,",",""))+1</f>
         <v>1</v>
       </c>
-      <c r="AM522" s="16">
+      <c r="AM522" s="36">
         <f>Table1[[#This Row], [no. of introduced regions]]/Table1[[#This Row], [no. of native regions]]</f>
         <v>1</v>
       </c>
@@ -50044,7 +50054,7 @@
         <f>Table1[[#This Row], [no. of native regions]]+Table1[[#This Row], [no. of introduced regions]]</f>
         <v>2</v>
       </c>
-      <c r="AM528" s="16">
+      <c r="AM528" s="36">
         <f>Table1[[#This Row], [no. of introduced regions]]/Table1[[#This Row], [no. of native regions]]</f>
         <v>1</v>
       </c>
@@ -50309,7 +50319,7 @@
         <f>Table1[[#This Row], [no. of native regions]]+Table1[[#This Row], [no. of introduced regions]]</f>
         <v>2</v>
       </c>
-      <c r="AM533" s="16">
+      <c r="AM533" s="36">
         <f>Table1[[#This Row], [no. of introduced regions]]/Table1[[#This Row], [no. of native regions]]</f>
         <v>1</v>
       </c>
@@ -50786,7 +50796,7 @@
         <f>Table1[[#This Row], [no. of native regions]]+Table1[[#This Row], [no. of introduced regions]]</f>
         <v>2</v>
       </c>
-      <c r="AM544" s="16">
+      <c r="AM544" s="36">
         <f>Table1[[#This Row], [no. of introduced regions]]/Table1[[#This Row], [no. of native regions]]</f>
         <v>1</v>
       </c>
@@ -50831,7 +50841,7 @@
         <f>Table1[[#This Row], [no. of native regions]]+Table1[[#This Row], [no. of introduced regions]]</f>
         <v>2</v>
       </c>
-      <c r="AM545" s="16">
+      <c r="AM545" s="36">
         <f>Table1[[#This Row], [no. of introduced regions]]/Table1[[#This Row], [no. of native regions]]</f>
         <v>1</v>
       </c>
@@ -52354,7 +52364,7 @@
         <f>Table1[[#This Row], [no. of native regions]]+Table1[[#This Row], [no. of introduced regions]]</f>
         <v>2</v>
       </c>
-      <c r="AM579" s="16">
+      <c r="AM579" s="36">
         <f>Table1[[#This Row], [no. of introduced regions]]/Table1[[#This Row], [no. of native regions]]</f>
         <v>1</v>
       </c>
@@ -52395,7 +52405,7 @@
         <f>LEN(AJ580)-LEN(SUBSTITUTE(AJ580,",",""))+1</f>
         <v>1</v>
       </c>
-      <c r="AM580" s="16">
+      <c r="AM580" s="36">
         <f>Table1[[#This Row], [no. of introduced regions]]/Table1[[#This Row], [no. of native regions]]</f>
         <v>1</v>
       </c>
@@ -52440,7 +52450,7 @@
         <f>Table1[[#This Row], [no. of native regions]]+Table1[[#This Row], [no. of introduced regions]]</f>
         <v>2</v>
       </c>
-      <c r="AM581" s="16">
+      <c r="AM581" s="36">
         <f>Table1[[#This Row], [no. of introduced regions]]/Table1[[#This Row], [no. of native regions]]</f>
         <v>1</v>
       </c>
@@ -52576,7 +52586,7 @@
         <f>LEN(AJ585)-LEN(SUBSTITUTE(AJ585,",",""))+1</f>
         <v>1</v>
       </c>
-      <c r="AM585" s="16">
+      <c r="AM585" s="36">
         <f>Table1[[#This Row], [no. of introduced regions]]/Table1[[#This Row], [no. of native regions]]</f>
         <v>1</v>
       </c>
@@ -52764,7 +52774,7 @@
         <f>Table1[[#This Row], [no. of native regions]]+Table1[[#This Row], [no. of introduced regions]]</f>
         <v>2</v>
       </c>
-      <c r="AM589" s="16">
+      <c r="AM589" s="36">
         <f>Table1[[#This Row], [no. of introduced regions]]/Table1[[#This Row], [no. of native regions]]</f>
         <v>1</v>
       </c>
@@ -53289,7 +53299,7 @@
         <f>LEN(AJ600)-LEN(SUBSTITUTE(AJ600,",",""))+1</f>
         <v>1</v>
       </c>
-      <c r="AM600" s="16">
+      <c r="AM600" s="36">
         <f>Table1[[#This Row], [no. of introduced regions]]/Table1[[#This Row], [no. of native regions]]</f>
         <v>1</v>
       </c>
@@ -54161,7 +54171,7 @@
         <f>Table1[[#This Row], [no. of native regions]]+Table1[[#This Row], [no. of introduced regions]]</f>
         <v>2</v>
       </c>
-      <c r="AM620" s="16">
+      <c r="AM620" s="36">
         <f>Table1[[#This Row], [no. of introduced regions]]/Table1[[#This Row], [no. of native regions]]</f>
         <v>1</v>
       </c>
@@ -55924,7 +55934,7 @@
         <f>LEN(AJ662)-LEN(SUBSTITUTE(AJ662,",",""))+1</f>
         <v>1</v>
       </c>
-      <c r="AM662" s="16">
+      <c r="AM662" s="36">
         <f>Table1[[#This Row], [no. of introduced regions]]/Table1[[#This Row], [no. of native regions]]</f>
         <v>1</v>
       </c>
@@ -56053,7 +56063,7 @@
         <f>LEN(AJ665)-LEN(SUBSTITUTE(AJ665,",",""))+1</f>
         <v>1</v>
       </c>
-      <c r="AM665" s="16">
+      <c r="AM665" s="36">
         <f>Table1[[#This Row], [no. of introduced regions]]/Table1[[#This Row], [no. of native regions]]</f>
         <v>1</v>
       </c>
@@ -56214,7 +56224,7 @@
         <f>LEN(AJ669)-LEN(SUBSTITUTE(AJ669,",",""))+1</f>
         <v>1</v>
       </c>
-      <c r="AM669" s="16">
+      <c r="AM669" s="36">
         <f>Table1[[#This Row], [no. of introduced regions]]/Table1[[#This Row], [no. of native regions]]</f>
         <v>1</v>
       </c>
@@ -56654,7 +56664,7 @@
         <f>LEN(AJ679)-LEN(SUBSTITUTE(AJ679,",",""))+1</f>
         <v>1</v>
       </c>
-      <c r="AM679" s="16">
+      <c r="AM679" s="36">
         <f>Table1[[#This Row], [no. of introduced regions]]/Table1[[#This Row], [no. of native regions]]</f>
         <v>1</v>
       </c>
@@ -57355,7 +57365,7 @@
         <f>LEN(AJ695)-LEN(SUBSTITUTE(AJ695,",",""))+1</f>
         <v>1</v>
       </c>
-      <c r="AM695" s="16">
+      <c r="AM695" s="36">
         <f>Table1[[#This Row], [no. of introduced regions]]/Table1[[#This Row], [no. of native regions]]</f>
         <v>1</v>
       </c>
@@ -57463,7 +57473,7 @@
         <f>Table1[[#This Row], [no. of native regions]]+Table1[[#This Row], [no. of introduced regions]]</f>
         <v>7</v>
       </c>
-      <c r="AM697" s="16">
+      <c r="AM697" s="36">
         <f>Table1[[#This Row], [no. of introduced regions]]/Table1[[#This Row], [no. of native regions]]</f>
         <v>2.5</v>
       </c>
@@ -57775,7 +57785,7 @@
         <f>LEN(AJ704)-LEN(SUBSTITUTE(AJ704,",",""))+1</f>
         <v>1</v>
       </c>
-      <c r="AM704" s="16">
+      <c r="AM704" s="36">
         <f>Table1[[#This Row], [no. of introduced regions]]/Table1[[#This Row], [no. of native regions]]</f>
         <v>1</v>
       </c>
@@ -57962,7 +57972,7 @@
         <f>Table1[[#This Row], [no. of native regions]]+Table1[[#This Row], [no. of introduced regions]]</f>
         <v>2</v>
       </c>
-      <c r="AM709" s="16">
+      <c r="AM709" s="36">
         <f>Table1[[#This Row], [no. of introduced regions]]/Table1[[#This Row], [no. of native regions]]</f>
         <v>1</v>
       </c>
@@ -58159,7 +58169,7 @@
         <f>LEN(AJ713)-LEN(SUBSTITUTE(AJ713,",",""))+1</f>
         <v>1</v>
       </c>
-      <c r="AM713" s="16">
+      <c r="AM713" s="36">
         <f>Table1[[#This Row], [no. of introduced regions]]/Table1[[#This Row], [no. of native regions]]</f>
         <v>1</v>
       </c>
@@ -58449,7 +58459,7 @@
         <f>Table1[[#This Row], [no. of native regions]]+Table1[[#This Row], [no. of introduced regions]]</f>
         <v>2</v>
       </c>
-      <c r="AM721" s="16">
+      <c r="AM721" s="36">
         <f>Table1[[#This Row], [no. of introduced regions]]/Table1[[#This Row], [no. of native regions]]</f>
         <v>1</v>
       </c>
@@ -58908,7 +58918,7 @@
         <f>LEN(AJ732)-LEN(SUBSTITUTE(AJ732,",",""))+1</f>
         <v>1</v>
       </c>
-      <c r="AM732" s="16">
+      <c r="AM732" s="36">
         <f>Table1[[#This Row], [no. of introduced regions]]/Table1[[#This Row], [no. of native regions]]</f>
         <v>1</v>
       </c>
@@ -59008,7 +59018,7 @@
         <f>Table1[[#This Row], [no. of native regions]]+Table1[[#This Row], [no. of introduced regions]]</f>
         <v>2</v>
       </c>
-      <c r="AM734" s="16">
+      <c r="AM734" s="36">
         <f>Table1[[#This Row], [no. of introduced regions]]/Table1[[#This Row], [no. of native regions]]</f>
         <v>1</v>
       </c>
@@ -59741,7 +59751,7 @@
         <f>Table1[[#This Row], [no. of native regions]]+Table1[[#This Row], [no. of introduced regions]]</f>
         <v>2</v>
       </c>
-      <c r="AM753" s="16">
+      <c r="AM753" s="36">
         <f>Table1[[#This Row], [no. of introduced regions]]/Table1[[#This Row], [no. of native regions]]</f>
         <v>1</v>
       </c>
@@ -60976,7 +60986,7 @@
         <f>Table1[[#This Row], [no. of native regions]]+Table1[[#This Row], [no. of introduced regions]]</f>
         <v>2</v>
       </c>
-      <c r="AM779" s="16">
+      <c r="AM779" s="36">
         <f>Table1[[#This Row], [no. of introduced regions]]/Table1[[#This Row], [no. of native regions]]</f>
         <v>1</v>
       </c>
@@ -61105,7 +61115,7 @@
         <f>LEN(AJ782)-LEN(SUBSTITUTE(AJ782,",",""))+1</f>
         <v>1</v>
       </c>
-      <c r="AM782" s="16">
+      <c r="AM782" s="36">
         <f>Table1[[#This Row], [no. of introduced regions]]/Table1[[#This Row], [no. of native regions]]</f>
         <v>1</v>
       </c>
@@ -61954,7 +61964,7 @@
         <f>Table1[[#This Row], [no. of native regions]]+Table1[[#This Row], [no. of introduced regions]]</f>
         <v>2</v>
       </c>
-      <c r="AM803" s="16">
+      <c r="AM803" s="36">
         <f>Table1[[#This Row], [no. of introduced regions]]/Table1[[#This Row], [no. of native regions]]</f>
         <v>1</v>
       </c>
@@ -62514,7 +62524,7 @@
         <f>Table1[[#This Row], [no. of native regions]]+Table1[[#This Row], [no. of introduced regions]]</f>
         <v>2</v>
       </c>
-      <c r="AM819" s="16">
+      <c r="AM819" s="36">
         <f>Table1[[#This Row], [no. of introduced regions]]/Table1[[#This Row], [no. of native regions]]</f>
         <v>1</v>
       </c>
@@ -62823,7 +62833,7 @@
         <f>LEN(AJ826)-LEN(SUBSTITUTE(AJ826,",",""))+1</f>
         <v>1</v>
       </c>
-      <c r="AM826" s="16">
+      <c r="AM826" s="36">
         <f>Table1[[#This Row], [no. of introduced regions]]/Table1[[#This Row], [no. of native regions]]</f>
         <v>1</v>
       </c>
@@ -63285,7 +63295,7 @@
         <f>LEN(AJ836)-LEN(SUBSTITUTE(AJ836,",",""))+1</f>
         <v>1</v>
       </c>
-      <c r="AM836" s="16">
+      <c r="AM836" s="36">
         <f>Table1[[#This Row], [no. of introduced regions]]/Table1[[#This Row], [no. of native regions]]</f>
         <v>1</v>
       </c>
@@ -63561,7 +63571,7 @@
         <f>Table1[[#This Row], [no. of native regions]]+Table1[[#This Row], [no. of introduced regions]]</f>
         <v>2</v>
       </c>
-      <c r="AM842" s="16">
+      <c r="AM842" s="36">
         <f>Table1[[#This Row], [no. of introduced regions]]/Table1[[#This Row], [no. of native regions]]</f>
         <v>1</v>
       </c>
@@ -63681,7 +63691,7 @@
         <f>Table1[[#This Row], [no. of native regions]]+Table1[[#This Row], [no. of introduced regions]]</f>
         <v>2</v>
       </c>
-      <c r="AM845" s="16">
+      <c r="AM845" s="36">
         <f>Table1[[#This Row], [no. of introduced regions]]/Table1[[#This Row], [no. of native regions]]</f>
         <v>1</v>
       </c>
@@ -63761,7 +63771,7 @@
         <f>Table1[[#This Row], [no. of native regions]]+Table1[[#This Row], [no. of introduced regions]]</f>
         <v>2</v>
       </c>
-      <c r="AM846" s="16">
+      <c r="AM846" s="36">
         <f>Table1[[#This Row], [no. of introduced regions]]/Table1[[#This Row], [no. of native regions]]</f>
         <v>1</v>
       </c>
@@ -64227,7 +64237,7 @@
         <f>LEN(AJ856)-LEN(SUBSTITUTE(AJ856,",",""))+1</f>
         <v>1</v>
       </c>
-      <c r="AM856" s="16">
+      <c r="AM856" s="36">
         <f>Table1[[#This Row], [no. of introduced regions]]/Table1[[#This Row], [no. of native regions]]</f>
         <v>1</v>
       </c>
@@ -64272,7 +64282,7 @@
         <f>Table1[[#This Row], [no. of native regions]]+Table1[[#This Row], [no. of introduced regions]]</f>
         <v>2</v>
       </c>
-      <c r="AM857" s="16">
+      <c r="AM857" s="36">
         <f>Table1[[#This Row], [no. of introduced regions]]/Table1[[#This Row], [no. of native regions]]</f>
         <v>1</v>
       </c>
@@ -64350,7 +64360,7 @@
         <f>Table1[[#This Row], [no. of native regions]]+Table1[[#This Row], [no. of introduced regions]]</f>
         <v>2</v>
       </c>
-      <c r="AM859" s="16">
+      <c r="AM859" s="36">
         <f>Table1[[#This Row], [no. of introduced regions]]/Table1[[#This Row], [no. of native regions]]</f>
         <v>1</v>
       </c>
@@ -64943,7 +64953,7 @@
         <f>Table1[[#This Row], [no. of native regions]]+Table1[[#This Row], [no. of introduced regions]]</f>
         <v>2</v>
       </c>
-      <c r="AM872" s="16">
+      <c r="AM872" s="36">
         <f>Table1[[#This Row], [no. of introduced regions]]/Table1[[#This Row], [no. of native regions]]</f>
         <v>1</v>
       </c>
@@ -66090,7 +66100,7 @@
         <f>Table1[[#This Row], [no. of native regions]]+Table1[[#This Row], [no. of introduced regions]]</f>
         <v>2</v>
       </c>
-      <c r="AM898" s="16">
+      <c r="AM898" s="36">
         <f>Table1[[#This Row], [no. of introduced regions]]/Table1[[#This Row], [no. of native regions]]</f>
         <v>1</v>
       </c>
@@ -67276,7 +67286,7 @@
         <f>LEN(AJ923)-LEN(SUBSTITUTE(AJ923,",",""))+1</f>
         <v>1</v>
       </c>
-      <c r="AM923" s="16">
+      <c r="AM923" s="36">
         <f>Table1[[#This Row], [no. of introduced regions]]/Table1[[#This Row], [no. of native regions]]</f>
         <v>1</v>
       </c>
@@ -67372,7 +67382,7 @@
         <f>LEN(AJ925)-LEN(SUBSTITUTE(AJ925,",",""))+1</f>
         <v>1</v>
       </c>
-      <c r="AM925" s="16">
+      <c r="AM925" s="36">
         <f>Table1[[#This Row], [no. of introduced regions]]/Table1[[#This Row], [no. of native regions]]</f>
         <v>1</v>
       </c>
@@ -68274,7 +68284,7 @@
         <f>LEN(AJ947)-LEN(SUBSTITUTE(AJ947,",",""))+1</f>
         <v>1</v>
       </c>
-      <c r="AM947" s="16">
+      <c r="AM947" s="36">
         <f>Table1[[#This Row], [no. of introduced regions]]/Table1[[#This Row], [no. of native regions]]</f>
         <v>1</v>
       </c>
@@ -68436,7 +68446,7 @@
         <f>LEN(AJ951)-LEN(SUBSTITUTE(AJ951,",",""))+1</f>
         <v>1</v>
       </c>
-      <c r="AM951" s="16">
+      <c r="AM951" s="36">
         <f>Table1[[#This Row], [no. of introduced regions]]/Table1[[#This Row], [no. of native regions]]</f>
         <v>1</v>
       </c>
@@ -68572,7 +68582,7 @@
         <f>LEN(AJ955)-LEN(SUBSTITUTE(AJ955,",",""))+1</f>
         <v>1</v>
       </c>
-      <c r="AM955" s="16">
+      <c r="AM955" s="36">
         <f>Table1[[#This Row], [no. of introduced regions]]/Table1[[#This Row], [no. of native regions]]</f>
         <v>1</v>
       </c>
@@ -68708,7 +68718,7 @@
         <f>LEN(AJ959)-LEN(SUBSTITUTE(AJ959,",",""))+1</f>
         <v>1</v>
       </c>
-      <c r="AM959" s="16">
+      <c r="AM959" s="36">
         <f>Table1[[#This Row], [no. of introduced regions]]/Table1[[#This Row], [no. of native regions]]</f>
         <v>1</v>
       </c>
@@ -68749,7 +68759,7 @@
         <f>LEN(AJ960)-LEN(SUBSTITUTE(AJ960,",",""))+1</f>
         <v>1</v>
       </c>
-      <c r="AM960" s="16">
+      <c r="AM960" s="36">
         <f>Table1[[#This Row], [no. of introduced regions]]/Table1[[#This Row], [no. of native regions]]</f>
         <v>1</v>
       </c>
@@ -68971,7 +68981,7 @@
         <f>LEN(AJ967)-LEN(SUBSTITUTE(AJ967,",",""))+1</f>
         <v>1</v>
       </c>
-      <c r="AM967" s="16">
+      <c r="AM967" s="36">
         <f>Table1[[#This Row], [no. of introduced regions]]/Table1[[#This Row], [no. of native regions]]</f>
         <v>1</v>
       </c>
@@ -69184,7 +69194,7 @@
         <f>LEN(AJ972)-LEN(SUBSTITUTE(AJ972,",",""))+1</f>
         <v>1</v>
       </c>
-      <c r="AM972" s="16">
+      <c r="AM972" s="36">
         <f>Table1[[#This Row], [no. of introduced regions]]/Table1[[#This Row], [no. of native regions]]</f>
         <v>1</v>
       </c>
@@ -69632,7 +69642,7 @@
         <f>LEN(AJ982)-LEN(SUBSTITUTE(AJ982,",",""))+1</f>
         <v>1</v>
       </c>
-      <c r="AM982" s="16">
+      <c r="AM982" s="36">
         <f>Table1[[#This Row], [no. of introduced regions]]/Table1[[#This Row], [no. of native regions]]</f>
         <v>1</v>
       </c>
@@ -70266,7 +70276,7 @@
         <f>LEN(AJ998)-LEN(SUBSTITUTE(AJ998,",",""))+1</f>
         <v>1</v>
       </c>
-      <c r="AM998" s="16">
+      <c r="AM998" s="36">
         <f>Table1[[#This Row], [no. of introduced regions]]/Table1[[#This Row], [no. of native regions]]</f>
         <v>1</v>
       </c>
@@ -71707,7 +71717,7 @@
         <f>Table1[[#This Row], [no. of native regions]]+Table1[[#This Row], [no. of introduced regions]]</f>
         <v>3</v>
       </c>
-      <c r="AM1030" s="16">
+      <c r="AM1030" s="36">
         <f>Table1[[#This Row], [no. of introduced regions]]/Table1[[#This Row], [no. of native regions]]</f>
         <v>0.5</v>
       </c>
@@ -71999,7 +72009,7 @@
         <f>Table1[[#This Row], [no. of native regions]]+Table1[[#This Row], [no. of introduced regions]]</f>
         <v>15</v>
       </c>
-      <c r="AM1035" s="16">
+      <c r="AM1035" s="36">
         <f>Table1[[#This Row], [no. of introduced regions]]/Table1[[#This Row], [no. of native regions]]</f>
         <v>0.36363636363636365</v>
       </c>
@@ -72411,7 +72421,7 @@
         <f>LEN(AJ1044)-LEN(SUBSTITUTE(AJ1044,",",""))+1</f>
         <v>1</v>
       </c>
-      <c r="AM1044" s="16">
+      <c r="AM1044" s="36">
         <f>Table1[[#This Row], [no. of introduced regions]]/Table1[[#This Row], [no. of native regions]]</f>
         <v>1</v>
       </c>
@@ -73089,7 +73099,7 @@
         <f>LEN(AJ1060)-LEN(SUBSTITUTE(AJ1060,",",""))+1</f>
         <v>1</v>
       </c>
-      <c r="AM1060" s="16">
+      <c r="AM1060" s="36">
         <f>Table1[[#This Row], [no. of introduced regions]]/Table1[[#This Row], [no. of native regions]]</f>
         <v>1</v>
       </c>
@@ -74352,7 +74362,7 @@
         <f>LEN(AJ1088)-LEN(SUBSTITUTE(AJ1088,",",""))+1</f>
         <v>1</v>
       </c>
-      <c r="AM1088" s="16">
+      <c r="AM1088" s="36">
         <f>Table1[[#This Row], [no. of introduced regions]]/Table1[[#This Row], [no. of native regions]]</f>
         <v>1</v>
       </c>
@@ -74430,7 +74440,7 @@
         <f>Table1[[#This Row], [no. of native regions]]+Table1[[#This Row], [no. of introduced regions]]</f>
         <v>129</v>
       </c>
-      <c r="AM1089" s="16">
+      <c r="AM1089" s="36">
         <f>Table1[[#This Row], [no. of introduced regions]]/Table1[[#This Row], [no. of native regions]]</f>
         <v>8.9230769230769234</v>
       </c>
@@ -74745,7 +74755,7 @@
         <f>LEN(AJ1095)-LEN(SUBSTITUTE(AJ1095,",",""))+1</f>
         <v>1</v>
       </c>
-      <c r="AM1095" s="16">
+      <c r="AM1095" s="36">
         <f>Table1[[#This Row], [no. of introduced regions]]/Table1[[#This Row], [no. of native regions]]</f>
         <v>1</v>
       </c>
@@ -75042,7 +75052,7 @@
         <f>Table1[[#This Row], [no. of native regions]]+Table1[[#This Row], [no. of introduced regions]]</f>
         <v>2</v>
       </c>
-      <c r="AM1103" s="16">
+      <c r="AM1103" s="36">
         <f>Table1[[#This Row], [no. of introduced regions]]/Table1[[#This Row], [no. of native regions]]</f>
         <v>1</v>
       </c>
@@ -75434,7 +75444,7 @@
         <f>LEN(AJ1113)-LEN(SUBSTITUTE(AJ1113,",",""))+1</f>
         <v>1</v>
       </c>
-      <c r="AM1113" s="16">
+      <c r="AM1113" s="36">
         <f>Table1[[#This Row], [no. of introduced regions]]/Table1[[#This Row], [no. of native regions]]</f>
         <v>1</v>
       </c>
